--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Settings" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Constants" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Assets" sheetId="3" r:id="rId5"/>
+    <sheet name="Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="2" r:id="rId2"/>
+    <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -183,77 +191,375 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="68.0"/>
-    <col customWidth="1" min="2" max="2" width="70.14"/>
-    <col customWidth="1" min="3" max="3" width="68.57"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -287,7 +593,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -298,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -309,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -320,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -331,17 +637,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1326,24 +1632,27 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.0"/>
-    <col customWidth="1" min="2" max="2" width="63.57"/>
-    <col customWidth="1" min="3" max="3" width="89.0"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,54 +1686,54 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <v>120000.0</v>
+        <v>120000</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1435,42 +1744,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12">
-        <v>15000.0</v>
+        <v>15000</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1481,7 +1790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +1801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1503,8 +1812,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1515,7 +1824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1526,7 +1835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1548,7 +1857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1559,15 +1868,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2536,21 +2845,22 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="65.43"/>
+    <col min="1" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,21 +2894,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3584,6 +3894,6 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -143,49 +143,73 @@
     <t>Image accuracy high value, for images that have low contrast. Must be double</t>
   </si>
   <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data fetched succesfully for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
+    <t>wbInit_Type</t>
+  </si>
+  <si>
+    <t>Name of Workblock</t>
+  </si>
+  <si>
+    <t>wbInit_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>Do not log successful executions of wb</t>
+  </si>
+  <si>
+    <t>wbGetTransactionData_Type</t>
+  </si>
+  <si>
+    <t>wbGetTransactionData_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbProcessTransaction_Type</t>
+  </si>
+  <si>
+    <t>wbProcessTransaction_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbNextTransaction_Type</t>
+  </si>
+  <si>
+    <t>wbNextTransaction_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbCloseAllApplications_Type</t>
+  </si>
+  <si>
+    <t>wbCloseAllApplications_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbInitAllApplications_Type</t>
+  </si>
+  <si>
+    <t>wbInitAllApplications_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbProcess_Type</t>
+  </si>
+  <si>
+    <t>wbProcess_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>Task1, Initialization State</t>
+  </si>
+  <si>
+    <t>Task1, Get Transaction Data State</t>
+  </si>
+  <si>
+    <t>Task1, Process Transaction State</t>
+  </si>
+  <si>
+    <t>Task1, Next Transaction</t>
+  </si>
+  <si>
+    <t>Task1, Close All Applications</t>
+  </si>
+  <si>
+    <t>Task1, InitAllApplications</t>
+  </si>
+  <si>
+    <t>Task1, Process Transaction</t>
   </si>
 </sst>
 </file>
@@ -229,10 +253,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,7 +1670,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1818,65 +1847,155 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -191,25 +191,25 @@
     <t>wbProcess_SuppressSuccessful</t>
   </si>
   <si>
-    <t>Task1, Initialization State</t>
-  </si>
-  <si>
-    <t>Task1, Get Transaction Data State</t>
-  </si>
-  <si>
-    <t>Task1, Process Transaction State</t>
-  </si>
-  <si>
-    <t>Task1, Next Transaction</t>
-  </si>
-  <si>
-    <t>Task1, Close All Applications</t>
-  </si>
-  <si>
-    <t>Task1, InitAllApplications</t>
-  </si>
-  <si>
-    <t>Task1, Process Transaction</t>
+    <t>Task1, FrameWork, Init</t>
+  </si>
+  <si>
+    <t>Task1, Framework, GetData</t>
+  </si>
+  <si>
+    <t>Task1, Framework, Process</t>
+  </si>
+  <si>
+    <t>Task1, Framework, Next</t>
+  </si>
+  <si>
+    <t>Task1, Business, CloseApps</t>
+  </si>
+  <si>
+    <t>Task1, Business, InitApps</t>
+  </si>
+  <si>
+    <t>Task1, Business, Process</t>
   </si>
 </sst>
 </file>
@@ -580,12 +580,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="3" max="3" width="68.5546875" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,15 +1670,15 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2974,9 +2974,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1858,7 +1858,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -1880,7 +1880,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1902,7 +1902,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -1924,7 +1924,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -1946,7 +1946,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1968,7 +1968,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Task1, Business, Process</t>
+  </si>
+  <si>
+    <t>wbGetDataTask_Type</t>
+  </si>
+  <si>
+    <t>wbGetDataTask_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>Task1, Framework, GetData Service</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1679,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1888,10 +1897,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1910,10 +1919,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1921,7 +1930,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1932,10 +1941,10 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1943,7 +1952,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1954,10 +1963,10 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1965,7 +1974,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1976,10 +1985,10 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1987,31 +1996,51 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -210,15 +210,6 @@
   </si>
   <si>
     <t>Task1, Business, Process</t>
-  </si>
-  <si>
-    <t>wbGetDataTask_Type</t>
-  </si>
-  <si>
-    <t>wbGetDataTask_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>Task1, Framework, GetData Service</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1897,10 +1888,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -1908,7 +1899,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1919,10 +1910,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1930,7 +1921,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1941,10 +1932,10 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1952,7 +1943,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1963,10 +1954,10 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1974,7 +1965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1985,10 +1976,10 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1996,51 +1987,31 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2990,8 +2961,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Task1, Business, Process</t>
+  </si>
+  <si>
+    <t>MaxInitRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1676,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1727,7 +1733,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Workblocks" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -1672,11 +1673,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1744,274 +1930,134 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>30000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>120000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>15000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>60000</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>0.6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2977,12 +3023,13 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -192,31 +192,40 @@
     <t>wbProcess_SuppressSuccessful</t>
   </si>
   <si>
-    <t>Task1, FrameWork, Init</t>
-  </si>
-  <si>
-    <t>Task1, Framework, GetData</t>
-  </si>
-  <si>
-    <t>Task1, Framework, Process</t>
-  </si>
-  <si>
-    <t>Task1, Framework, Next</t>
-  </si>
-  <si>
-    <t>Task1, Business, CloseApps</t>
-  </si>
-  <si>
-    <t>Task1, Business, InitApps</t>
-  </si>
-  <si>
-    <t>Task1, Business, Process</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
     <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
+  </si>
+  <si>
+    <t>wbCloseAppsRecover_Type</t>
+  </si>
+  <si>
+    <t>wbCloseAppsRecover_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>RecoverApps</t>
+  </si>
+  <si>
+    <t>GetData</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>CloseApps</t>
+  </si>
+  <si>
+    <t>InitApps</t>
+  </si>
+  <si>
+    <t>ProcessApps</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1703,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1722,10 +1731,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1733,7 +1742,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1744,10 +1753,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1755,7 +1764,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -1766,10 +1775,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1777,7 +1786,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -1788,10 +1797,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1799,7 +1808,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -1810,10 +1819,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1821,7 +1830,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="b">
         <v>1</v>
@@ -1832,10 +1841,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1843,12 +1852,34 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1861,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1921,13 +1952,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C18"/>
+      <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -168,12 +168,6 @@
     <t>wbProcessTransaction_SuppressSuccessful</t>
   </si>
   <si>
-    <t>wbNextTransaction_Type</t>
-  </si>
-  <si>
-    <t>wbNextTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>wbCloseAllApplications_Type</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
   </si>
   <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>Next</t>
   </si>
   <si>
     <t>CloseApps</t>
@@ -1683,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1712,7 +1703,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1731,10 +1722,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1742,7 +1733,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1756,7 +1747,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1778,7 +1769,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1800,7 +1791,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1822,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1843,8 +1834,8 @@
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+      <c r="B15" t="s">
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1854,32 +1845,10 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
+      <c r="B16" t="b">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1952,13 +1921,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
     <t>TimeoutShort</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
-    <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
-  </si>
-  <si>
     <t>wbCloseAppsRecover_Type</t>
   </si>
   <si>
@@ -217,6 +211,18 @@
   </si>
   <si>
     <t>ProcessApps</t>
+  </si>
+  <si>
+    <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will retry the Initialisation state with a failed exception. Must be an integer.</t>
+  </si>
+  <si>
+    <t>MaxContinuousRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1700,156 +1706,156 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1916,135 +1922,145 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>30000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>120000</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>120000</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>15000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>60000</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>60000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0.6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>0.9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3024,6 +3040,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1941,7 +1941,7 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -165,52 +165,16 @@
     <t>wbProcessTransaction_SuppressSuccessful</t>
   </si>
   <si>
-    <t>wbCloseAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAllApplications_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcess_Type</t>
-  </si>
-  <si>
-    <t>wbProcess_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
-    <t>wbCloseAppsRecover_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAppsRecover_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>Init</t>
   </si>
   <si>
-    <t>RecoverApps</t>
-  </si>
-  <si>
     <t>GetData</t>
   </si>
   <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>CloseApps</t>
-  </si>
-  <si>
-    <t>InitApps</t>
-  </si>
-  <si>
-    <t>ProcessApps</t>
   </si>
   <si>
     <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
@@ -1680,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,7 +1673,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1728,10 +1692,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1739,7 +1703,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1750,10 +1714,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1761,7 +1725,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -1771,92 +1735,22 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1867,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1922,29 +1816,29 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FABBC-6693-4C9E-AC2A-B123BC068371}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +40,6 @@
     <t>OrchestratorURL</t>
   </si>
   <si>
-    <t>https://demo.uipath.com</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -54,25 +52,16 @@
     <t>OrchestratorCredentialName</t>
   </si>
   <si>
-    <t>demo.uipath.com_credentials</t>
-  </si>
-  <si>
     <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
   </si>
   <si>
     <t>OrchestratorTenancyName</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-  </si>
-  <si>
-    <t>KibanaDemoQueue</t>
   </si>
   <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
@@ -555,7 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -603,44 +594,32 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1646,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
@@ -1670,68 +1649,68 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1810,149 +1789,149 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>30000</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>120000</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>15000</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>60000</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0.6</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.8</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>0.9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2959,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FABBC-6693-4C9E-AC2A-B123BC068371}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F50AF-D181-4C1E-B6A1-53D83F98BE90}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Workblocks" sheetId="4" r:id="rId2"/>
-    <sheet name="Constants" sheetId="2" r:id="rId3"/>
-    <sheet name="Assets" sheetId="3" r:id="rId4"/>
+    <sheet name="Introduction" sheetId="7" r:id="rId1"/>
+    <sheet name="Settings" sheetId="1" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId3"/>
+    <sheet name="Workblocks" sheetId="4" r:id="rId4"/>
+    <sheet name="Constants" sheetId="2" r:id="rId5"/>
+    <sheet name="Assets" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -34,126 +36,126 @@
     <t>Description</t>
   </si>
   <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
+    <t>OrchestratorURL</t>
+  </si>
+  <si>
+    <t>The URL of your orchestrator server. This property is used only if you are using a Queue to store your Transaction Items.</t>
+  </si>
+  <si>
+    <t>OrchestratorCredentialName</t>
+  </si>
+  <si>
+    <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
+  </si>
+  <si>
+    <t>OrchestratorTenancyName</t>
+  </si>
+  <si>
+    <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
-    <t>OrchestratorURL</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>The URL of your orchestrator server. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorCredentialName</t>
-  </si>
-  <si>
-    <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorTenancyName</t>
-  </si>
-  <si>
-    <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-  </si>
-  <si>
-    <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
-  </si>
-  <si>
     <t>wbInit_Type</t>
   </si>
   <si>
+    <t>wbGetTransactionData_Type</t>
+  </si>
+  <si>
+    <t>wbProcessTransaction_Type</t>
+  </si>
+  <si>
+    <t>wbInit_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbGetTransactionData_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>wbProcessTransaction_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>Do not log successful executions of wb</t>
+  </si>
+  <si>
     <t>Name of Workblock</t>
   </si>
   <si>
-    <t>wbInit_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>Do not log successful executions of wb</t>
-  </si>
-  <si>
-    <t>wbGetTransactionData_Type</t>
-  </si>
-  <si>
-    <t>wbGetTransactionData_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_Type</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
@@ -166,23 +168,44 @@
     <t>Process</t>
   </si>
   <si>
+    <t>MaxContinuousRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will retry the Initialisation state with a failed exception. Must be an integer.</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
+  </si>
+  <si>
     <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
   </si>
   <si>
-    <t>If &gt; 0 will retry the Initialisation state with a failed exception. Must be an integer.</t>
-  </si>
-  <si>
-    <t>MaxContinuousRetryNumber</t>
-  </si>
-  <si>
-    <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
+    <t>####  Legend ####</t>
+  </si>
+  <si>
+    <t>Help. To be written</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
+  </si>
+  <si>
+    <t>This Key is used only during Debug. You can delete in production</t>
+  </si>
+  <si>
+    <t>This key belongs to user designated category 1</t>
+  </si>
+  <si>
+    <t>This key is used in the Framework layer. You can change the values, but do not delete the keys</t>
+  </si>
+  <si>
+    <t>This key is used in the Business Process Layer. The developer is responsible for the keys. The user is responsible for the values.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,16 +221,68 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,22 +290,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,18 +662,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z991"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="169.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,50 +765,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:26" ht="15" customHeight="1">
+      <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -1608,147 +1748,25 @@
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B20EA-98E0-49E0-B725-51F3A3F2B382}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
+  <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="169.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1786,154 +1804,1303 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z998"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>43</v>
+      <c r="A4" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>30000</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>120000</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>15000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>60000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B17">
+        <v>0.9</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>15000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>60000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>0.6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1949,8 +3116,6 @@
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>
@@ -2913,13 +4078,12 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -2935,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F50AF-D181-4C1E-B6A1-53D83F98BE90}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF3398-4CAC-4912-8501-F8E9458A4C52}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
   </si>
   <si>
-    <t>####  Legend ####</t>
-  </si>
-  <si>
-    <t>Help. To be written</t>
-  </si>
-  <si>
     <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
   </si>
   <si>
@@ -199,13 +193,19 @@
   </si>
   <si>
     <t>This key is used in the Business Process Layer. The developer is responsible for the keys. The user is responsible for the values.</t>
+  </si>
+  <si>
+    <t>Help regarding this Configuration File</t>
+  </si>
+  <si>
+    <t>####  Legend of Key Value pairs####</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +248,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -328,7 +342,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -338,13 +352,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -666,7 +697,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,40 +705,58 @@
     <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30">
-      <c r="A10" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,7 +814,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
@@ -1805,7 +1854,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -1813,7 +1862,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
@@ -1821,7 +1870,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -2833,7 +2882,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2844,7 +2893,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3" t="b">
@@ -2855,7 +2904,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
@@ -2866,7 +2915,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="b">
@@ -2877,7 +2926,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
@@ -2888,7 +2937,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="3" t="b">
@@ -2954,7 +3003,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -2965,7 +3014,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B3">
@@ -2976,7 +3025,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B4">
@@ -2987,7 +3036,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2999,7 +3048,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3010,7 +3059,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3021,7 +3070,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3033,7 +3082,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -3044,7 +3093,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -3055,7 +3104,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -3067,7 +3116,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -3078,7 +3127,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -3089,7 +3138,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17">

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF3398-4CAC-4912-8501-F8E9458A4C52}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100A3C3-90AD-4226-86C0-82305E4D0C4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -198,14 +198,47 @@
     <t>Help regarding this Configuration File</t>
   </si>
   <si>
-    <t>####  Legend of Key Value pairs####</t>
+    <t>This is the configuration file used to describe various changeable parameters of the process. You should use this file to store settings that are environment related (like paths to programs or resources), user related (email account names, credential names), or plain data (URL of website or name of SAP report to execute). Below, the purpose of each sheet is explained in more detail.</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>This sheet is the place to store plain data, as well as most user data with the important exception of credential names.</t>
+  </si>
+  <si>
+    <t>Credentials</t>
+  </si>
+  <si>
+    <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
+  </si>
+  <si>
+    <t>Workblocks</t>
+  </si>
+  <si>
+    <t>The workblock names are of the states in the framework. Define the names of workblocks you create here.</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typically there is not much for you to add here, although you want to check/change the settings of the Retry mechanism implemented in at the framework layer, during transaction processing, exception recovery, and continuous failiure. Also stores constants used throughout the program, like preconfiguered delays, timeouts. </t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>This sheet is used to fetch assets from Orchestrator. The column name is the key, while the column asset hoolds the asset name in Orchestrator. If there is another local key with the same name, it will be overwritten by the value fetched from Orchestrator.</t>
+  </si>
+  <si>
+    <t>####  Legend of Key Value pair colours####</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,6 +296,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +382,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -375,7 +415,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -694,15 +742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
@@ -710,53 +756,96 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:1" ht="18.75">
+      <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1" ht="60">
+      <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
+    <row r="4" spans="1:1" ht="15.75">
+      <c r="A4" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>54</v>
+      <c r="A5" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
-      <c r="A6" s="11" t="s">
-        <v>55</v>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
-        <v>53</v>
+    <row r="7" spans="1:1" ht="45">
+      <c r="A7" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
-        <v>52</v>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="14"/>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="14"/>
+    <row r="11" spans="1:1" ht="45">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
+    <row r="12" spans="1:1" ht="15.75">
+      <c r="A12" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100A3C3-90AD-4226-86C0-82305E4D0C4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F687083-9D1A-4A16-84A0-EE7BD3DD27AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -903,7 +903,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F687083-9D1A-4A16-84A0-EE7BD3DD27AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52635-2D3B-49EA-9F2C-FE620392B668}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -102,24 +102,6 @@
     <t>Image accuracy high value, for images that have low contrast. Must be double</t>
   </si>
   <si>
-    <t>OrchestratorURL</t>
-  </si>
-  <si>
-    <t>The URL of your orchestrator server. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorCredentialName</t>
-  </si>
-  <si>
-    <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorTenancyName</t>
-  </si>
-  <si>
-    <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
   </si>
   <si>
-    <t>This Key is used only during Debug. You can delete in production</t>
-  </si>
-  <si>
     <t>This key belongs to user designated category 1</t>
   </si>
   <si>
@@ -232,6 +211,9 @@
   </si>
   <si>
     <t>####  Legend of Key Value pair colours####</t>
+  </si>
+  <si>
+    <t>This key belongs to user designated category 2</t>
   </si>
 </sst>
 </file>
@@ -412,9 +394,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -422,6 +401,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,7 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -753,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -761,90 +745,90 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
+      <c r="A4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>59</v>
+      <c r="A5" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="14" t="s">
-        <v>60</v>
+      <c r="A6" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="15" t="s">
-        <v>61</v>
+      <c r="A7" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="14" t="s">
-        <v>62</v>
+      <c r="A8" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>63</v>
+      <c r="A9" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="14" t="s">
-        <v>64</v>
+      <c r="A10" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="15" t="s">
-        <v>65</v>
+      <c r="A11" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="14" t="s">
-        <v>66</v>
+      <c r="A12" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="15" t="s">
-        <v>67</v>
+      <c r="A13" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="16" t="s">
-        <v>51</v>
+      <c r="A16" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
-        <v>52</v>
+      <c r="A20" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -904,10 +888,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -1894,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1942,30 +1926,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -2936,9 +2899,6 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2972,68 +2932,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3099,29 +3059,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4237,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52635-2D3B-49EA-9F2C-FE620392B668}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AD984-BB85-41C5-8873-E3850FB04907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -114,27 +114,12 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbInit_Type</t>
-  </si>
-  <si>
     <t>wbGetTransactionData_Type</t>
   </si>
   <si>
     <t>wbProcessTransaction_Type</t>
   </si>
   <si>
-    <t>wbInit_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbGetTransactionData_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>Do not log successful executions of wb</t>
-  </si>
-  <si>
     <t>Name of Workblock</t>
   </si>
   <si>
@@ -214,6 +199,15 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
+  </si>
+  <si>
+    <t>wbInitAllApplications_Type</t>
+  </si>
+  <si>
+    <t>wbCloseAllApplications_Type</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -737,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -745,57 +739,57 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
       <c r="A13" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -803,32 +797,32 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
       <c r="A16" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2906,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,24 +2926,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2957,43 +2951,21 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3059,29 +3031,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">

--- a/ServicesLayer/Task1/Data/Config.xlsx
+++ b/ServicesLayer/Task1/Data/Config.xlsx
@@ -5,27 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\UiPath_REFramework\ServicesLayer\Task1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AD984-BB85-41C5-8873-E3850FB04907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D6175-8C81-4A49-9701-2939C50ACBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="Credentials" sheetId="6" r:id="rId3"/>
-    <sheet name="Workblocks" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="2" r:id="rId5"/>
-    <sheet name="Assets" sheetId="3" r:id="rId6"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -114,25 +113,7 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbGetTransactionData_Type</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_Type</t>
-  </si>
-  <si>
-    <t>Name of Workblock</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>GetData</t>
-  </si>
-  <si>
-    <t>Process</t>
   </si>
   <si>
     <t>MaxContinuousRetryNumber</t>
@@ -177,12 +158,6 @@
     <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
   </si>
   <si>
-    <t>Workblocks</t>
-  </si>
-  <si>
-    <t>The workblock names are of the states in the framework. Define the names of workblocks you create here.</t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
@@ -199,15 +174,6 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAllApplications_Type</t>
-  </si>
-  <si>
-    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -358,13 +324,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -718,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,99 +693,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
+      <c r="A1" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="60">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
+      <c r="A3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="13" t="s">
-        <v>46</v>
+      <c r="A4" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>47</v>
+      <c r="A5" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="13" t="s">
-        <v>48</v>
+      <c r="A6" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="14" t="s">
-        <v>49</v>
+      <c r="A7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="13" t="s">
-        <v>50</v>
+      <c r="A8" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
-        <v>51</v>
+    <row r="9" spans="1:1" ht="45">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="13" t="s">
-        <v>52</v>
+      <c r="A10" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="14" t="s">
-        <v>53</v>
+    <row r="11" spans="1:1" ht="30">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="13" t="s">
-        <v>54</v>
-      </c>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="15" t="s">
-        <v>40</v>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
+      <c r="A17" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>57</v>
+      <c r="A18" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +834,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -889,7 +842,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -2899,81 +2852,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
@@ -3024,40 +2902,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>36</v>
+      <c r="A4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -3069,7 +2947,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3080,7 +2958,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3091,7 +2969,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3103,7 +2981,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -3114,7 +2992,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -3125,7 +3003,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -3137,7 +3015,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -3148,7 +3026,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -3159,7 +3037,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17">
@@ -4153,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
